--- a/db_structure/031. Intra Journal.xlsx
+++ b/db_structure/031. Intra Journal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -423,6 +423,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -458,6 +475,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -636,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,7 +725,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
         <v>67</v>
@@ -705,7 +739,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -742,7 +776,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>

--- a/db_structure/031. Intra Journal.xlsx
+++ b/db_structure/031. Intra Journal.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FEF0DDE2-0DB3-46CD-993D-4557C1A2B945}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -15,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="84">
   <si>
     <t>Dcoument ID</t>
   </si>
@@ -261,12 +262,18 @@
   </si>
   <si>
     <t>ijch_ptym_id</t>
+  </si>
+  <si>
+    <t>New Version Mysql</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -667,11 +674,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -682,9 +689,10 @@
     <col min="4" max="4" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -693,14 +701,14 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -709,7 +717,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -722,8 +730,11 @@
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>182</v>
       </c>
@@ -736,8 +747,11 @@
       <c r="F7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8" s="1">
         <v>177</v>
       </c>
@@ -750,20 +764,23 @@
       <c r="F8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>
     </row>
   </sheetData>
@@ -773,11 +790,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
